--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T I G E R\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\waqban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A6C6F-4835-4BEA-B7BA-C2C2F8A73437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5C3F1-5D39-47C4-A5CD-3790519A58DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>احمد احمد احمد محمد</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>محمد علي تامر محمد</t>
+  </si>
+  <si>
+    <t>ممدوح محمد المغاوري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد تامر سعيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالم سالم سالم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعيد سعيد سعيد </t>
+  </si>
+  <si>
+    <t>عمر عمر عمر</t>
+  </si>
+  <si>
+    <t>عليم سعد سعد</t>
+  </si>
+  <si>
+    <t>شهد علي علي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صابر  علي صابر </t>
   </si>
 </sst>
 </file>
@@ -376,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,8 +487,149 @@
         <v>4542121051</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>45055405405</v>
+      </c>
+    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>454545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>4542121051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>454545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>410050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>88888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>88888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>4540</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
